--- a/ShinyApp/data/complete-list.xlsx
+++ b/ShinyApp/data/complete-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julierebstock/Desktop/Virginia-Tech/DSPG-2021/Loudoun-County/2021_DSPG_Loudoun/ShinyApp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E5DB3-061F-2143-8415-AAD9B8314A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E96A7F-EE57-C04F-9209-79DB48A0AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23060" windowHeight="17440" xr2:uid="{4632C4BB-D241-C74A-8837-66435AB2A0CF}"/>
   </bookViews>
@@ -806,9 +806,6 @@
     <t>https://www.vccs.edu/wp-content/uploads/2020/04/FINCIAL-AID-PROGRAMS-revised-100719.pdf</t>
   </si>
   <si>
-    <t>https://www.transitiolservices.org/programs/psychiatric-disabilities/transition-age-youth-tay</t>
-  </si>
-  <si>
     <t>https://www.alleghenycounty.us/Human-Services/Programs-Services/Basic-Needs/Self-Sufficiency-Case-Magement,-Training,-and-Job-Placement.aspx</t>
   </si>
   <si>
@@ -900,9 +897,6 @@
   </si>
   <si>
     <t>Must take TEAS exam prior </t>
-  </si>
-  <si>
-    <t>Household must make less than 50% of the Area Median Income (AMI) for the area where the voucher will be used (this is known as the income limit).</t>
   </si>
   <si>
     <t>Under 19 years old, not insured and fall below family income of $2,201 monthly </t>
@@ -1207,13 +1201,19 @@
   </si>
   <si>
     <t>TOPS</t>
+  </si>
+  <si>
+    <t>Have a household income at or below 50 percent of the area median income as determined by the U.S. Department of Housing and Urban Development (HUD); Be a United States citizen, or a non-citizen with "eligible immigration status.”</t>
+  </si>
+  <si>
+    <t>https://www.transitionalservices.org/programs/psychiatric-disabilities/transition-age-youth-tay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1273,6 +1273,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1337,7 +1343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1385,6 +1391,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1709,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57FC4F-EB06-AA42-A723-3E738AABF9A5}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="30" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
@@ -1756,7 +1766,7 @@
         <v>250</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1767,16 +1777,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>13</v>
@@ -1805,7 +1815,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>165</v>
@@ -1820,7 +1830,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1831,16 +1841,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
@@ -1869,10 +1879,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1884,7 +1894,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="64">
@@ -1901,10 +1911,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1916,7 +1926,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="44">
@@ -1933,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>165</v>
@@ -1948,7 +1958,7 @@
         <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22">
@@ -1965,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -1980,7 +1990,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42">
@@ -2023,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -2044,10 +2054,10 @@
         <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="63">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2097,7 @@
         <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -2096,7 +2106,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>29</v>
@@ -2108,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43">
@@ -2119,7 +2129,7 @@
         <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -2128,22 +2138,22 @@
         <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="44">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2151,13 +2161,13 @@
         <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>286</v>
+      <c r="E14" s="29" t="s">
+        <v>386</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>167</v>
@@ -2166,13 +2176,13 @@
         <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>247</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="44" customHeight="1">
@@ -2183,7 +2193,7 @@
         <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -2204,7 +2214,7 @@
         <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43">
@@ -2215,7 +2225,7 @@
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -2224,22 +2234,22 @@
         <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="44">
       <c r="A17" s="1" t="s">
         <v>194</v>
       </c>
@@ -2247,13 +2257,13 @@
         <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>286</v>
+      <c r="E17" s="29" t="s">
+        <v>386</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>167</v>
@@ -2262,13 +2272,13 @@
         <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>247</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43">
@@ -2279,7 +2289,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>
@@ -2300,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="36" customHeight="1">
@@ -2311,7 +2321,7 @@
         <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
@@ -2332,7 +2342,7 @@
         <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="36" customHeight="1">
@@ -2343,7 +2353,7 @@
         <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
@@ -2364,7 +2374,7 @@
         <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="44">
@@ -2375,7 +2385,7 @@
         <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>4</v>
@@ -2384,7 +2394,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>7</v>
@@ -2396,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43">
@@ -2407,13 +2417,13 @@
         <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>169</v>
@@ -2439,13 +2449,13 @@
         <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>170</v>
@@ -2454,7 +2464,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>28</v>
@@ -2480,7 +2490,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>28</v>
@@ -2503,13 +2513,13 @@
         <v>186</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>170</v>
@@ -2518,7 +2528,7 @@
         <v>28</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>28</v>
@@ -2529,19 +2539,19 @@
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>170</v>
@@ -2550,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>28</v>
@@ -2559,7 +2569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="85">
+    <row r="27" spans="1:10" ht="64">
       <c r="A27" s="1" t="s">
         <v>152</v>
       </c>
@@ -2588,12 +2598,12 @@
         <v>194</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="66">
       <c r="A28" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -2605,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>44</v>
@@ -2617,15 +2627,15 @@
         <v>46</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>119</v>
@@ -2637,10 +2647,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>45</v>
@@ -2649,15 +2659,15 @@
         <v>48</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="42">
       <c r="A30" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>119</v>
@@ -2678,18 +2688,18 @@
         <v>28</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="44">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="43">
       <c r="A31" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>117</v>
@@ -2701,7 +2711,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -2713,21 +2723,21 @@
         <v>56</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="66">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="42">
       <c r="A32" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -2736,24 +2746,24 @@
         <v>57</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>254</v>
+      <c r="H32" s="30" t="s">
+        <v>387</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="63">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="42">
       <c r="A33" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>117</v>
@@ -2777,15 +2787,15 @@
         <v>59</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="64">
       <c r="A34" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>117</v>
@@ -2800,7 +2810,7 @@
         <v>41</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>45</v>
@@ -2809,15 +2819,15 @@
         <v>59</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="64">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="44">
       <c r="A35" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>117</v>
@@ -2841,15 +2851,15 @@
         <v>59</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="84">
       <c r="A36" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>120</v>
@@ -2870,18 +2880,18 @@
         <v>45</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="88">
       <c r="A37" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>120</v>
@@ -2893,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>172</v>
@@ -2905,27 +2915,27 @@
         <v>164</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="84">
       <c r="A38" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>173</v>
@@ -2937,15 +2947,15 @@
         <v>66</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>186</v>
@@ -2977,22 +2987,22 @@
     </row>
     <row r="40" spans="1:10" ht="63">
       <c r="A40" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>28</v>
@@ -3001,7 +3011,7 @@
         <v>69</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>28</v>
@@ -3009,7 +3019,7 @@
     </row>
     <row r="41" spans="1:10" ht="63">
       <c r="A41" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>186</v>
@@ -3033,7 +3043,7 @@
         <v>69</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>28</v>
@@ -3062,13 +3072,13 @@
         <v>28</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="42">
@@ -3088,19 +3098,19 @@
         <v>77</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="42">
@@ -3126,13 +3136,13 @@
         <v>28</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I44" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="42">
@@ -3152,19 +3162,19 @@
         <v>77</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="42">
@@ -3181,7 +3191,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>79</v>
@@ -3190,13 +3200,13 @@
         <v>29</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="42">
@@ -3222,13 +3232,13 @@
         <v>29</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="42">
@@ -3245,7 +3255,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>85</v>
@@ -3254,7 +3264,7 @@
         <v>28</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>28</v>
@@ -3263,7 +3273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="42">
+    <row r="49" spans="1:10" ht="21">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -3277,22 +3287,22 @@
         <v>73</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I49" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="63">
@@ -3309,25 +3319,25 @@
         <v>73</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I50" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="21">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -3335,7 +3345,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4</v>
@@ -3344,19 +3354,19 @@
         <v>87</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I51" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="42">
@@ -3373,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>89</v>
@@ -3382,18 +3392,18 @@
         <v>29</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I52" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="42">
       <c r="A53" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>117</v>
@@ -3414,18 +3424,18 @@
         <v>28</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I53" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="42">
       <c r="A54" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>117</v>
@@ -3446,18 +3456,18 @@
         <v>45</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I54" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="42">
       <c r="A55" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>119</v>
@@ -3478,18 +3488,18 @@
         <v>28</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="64">
       <c r="A56" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>119</v>
@@ -3516,12 +3526,12 @@
         <v>28</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="63">
       <c r="A57" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>119</v>
@@ -3533,27 +3543,27 @@
         <v>73</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="63">
       <c r="A58" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>119</v>
@@ -3565,33 +3575,33 @@
         <v>73</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="42">
       <c r="A59" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>4</v>
@@ -3606,18 +3616,18 @@
         <v>28</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>119</v>
@@ -3632,13 +3642,13 @@
         <v>106</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>188</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>28</v>
@@ -3649,7 +3659,7 @@
     </row>
     <row r="61" spans="1:10" ht="42">
       <c r="A61" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>119</v>
@@ -3664,24 +3674,24 @@
         <v>108</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>189</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I61" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="42">
       <c r="A62" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>119</v>
@@ -3696,13 +3706,13 @@
         <v>110</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>191</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I62" s="17" t="s">
         <v>28</v>
@@ -3713,7 +3723,7 @@
     </row>
     <row r="63" spans="1:10" ht="42">
       <c r="A63" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>125</v>
@@ -3734,18 +3744,18 @@
         <v>45</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="66">
       <c r="A64" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>125</v>
@@ -3757,10 +3767,10 @@
         <v>4</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>28</v>
@@ -3772,12 +3782,12 @@
         <v>28</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="42">
       <c r="A65" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>125</v>
@@ -3792,24 +3802,24 @@
         <v>110</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="42">
       <c r="A66" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>125</v>
@@ -3830,18 +3840,18 @@
         <v>45</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="42">
       <c r="A67" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>125</v>
@@ -3862,24 +3872,24 @@
         <v>90</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="21">
       <c r="A68" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>4</v>
@@ -3888,24 +3898,24 @@
         <v>110</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="42">
       <c r="A69" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>186</v>
@@ -3920,22 +3930,22 @@
         <v>187</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>190</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="63">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="42">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -3943,7 +3953,7 @@
         <v>117</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>4</v>
@@ -3958,16 +3968,16 @@
         <v>249</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>247</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="63">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="42">
       <c r="A71" s="1" t="s">
         <v>194</v>
       </c>
@@ -3975,7 +3985,7 @@
         <v>117</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>4</v>
@@ -3990,13 +4000,13 @@
         <v>249</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>247</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="42">
@@ -4022,13 +4032,13 @@
         <v>29</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21">
@@ -4054,13 +4064,13 @@
         <v>19</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="64">
@@ -4077,7 +4087,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>183</v>
@@ -4092,7 +4102,7 @@
         <v>194</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="85">
@@ -4112,7 +4122,7 @@
         <v>136</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>137</v>
@@ -4124,7 +4134,7 @@
         <v>194</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="84">
@@ -4144,7 +4154,7 @@
         <v>136</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>137</v>
@@ -4156,7 +4166,7 @@
         <v>194</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="44">
@@ -4176,7 +4186,7 @@
         <v>141</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>142</v>
@@ -4185,13 +4195,13 @@
         <v>143</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="88">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="66">
       <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
@@ -4199,7 +4209,7 @@
         <v>119</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>4</v>
@@ -4220,7 +4230,7 @@
         <v>194</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="84">
@@ -4231,7 +4241,7 @@
         <v>119</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>4</v>
@@ -4240,7 +4250,7 @@
         <v>156</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>11</v>
@@ -4252,7 +4262,7 @@
         <v>194</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="66">
@@ -4272,7 +4282,7 @@
         <v>41</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>28</v>
@@ -4327,7 +4337,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>4</v>
@@ -4348,10 +4358,10 @@
         <v>194</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="148">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="127">
       <c r="A83" s="1" t="s">
         <v>152</v>
       </c>
@@ -4359,7 +4369,7 @@
         <v>120</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>4</v>
@@ -4368,7 +4378,7 @@
         <v>154</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>152</v>
@@ -4380,7 +4390,7 @@
         <v>194</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="63">
@@ -4397,7 +4407,7 @@
         <v>4</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>179</v>
@@ -4412,7 +4422,7 @@
         <v>194</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="63">
@@ -4444,7 +4454,7 @@
         <v>194</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="64">
@@ -4464,7 +4474,7 @@
         <v>163</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>152</v>
@@ -4504,7 +4514,7 @@
         <v>194</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="44">
@@ -4534,7 +4544,7 @@
         <v>194</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="44">
@@ -4564,7 +4574,7 @@
         <v>194</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="43">
@@ -4575,7 +4585,7 @@
         <v>186</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>4</v>
@@ -4584,7 +4594,7 @@
         <v>210</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>145</v>
@@ -4596,10 +4606,10 @@
         <v>194</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="44">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="22">
       <c r="A91" s="1" t="s">
         <v>212</v>
       </c>
@@ -4620,13 +4630,13 @@
         <v>222</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I91" s="17" t="s">
         <v>194</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="44">
@@ -4652,13 +4662,13 @@
         <v>152</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I92" s="17" t="s">
         <v>247</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="43">
@@ -4681,7 +4691,7 @@
         <v>224</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H93" s="22" t="s">
         <v>218</v>
@@ -4690,7 +4700,7 @@
         <v>247</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="43">
@@ -4707,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>225</v>
@@ -4722,7 +4732,7 @@
         <v>247</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="44">
@@ -4748,13 +4758,13 @@
         <v>152</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I95" s="17" t="s">
         <v>247</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="43">
@@ -4777,7 +4787,7 @@
         <v>224</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H96" s="22" t="s">
         <v>218</v>
@@ -4786,7 +4796,7 @@
         <v>247</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="43">
@@ -4803,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>225</v>
@@ -4818,7 +4828,7 @@
         <v>247</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="42">
@@ -4850,7 +4860,7 @@
         <v>7</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="42">
@@ -4861,7 +4871,7 @@
         <v>186</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>4</v>
@@ -4876,13 +4886,13 @@
         <v>29</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I99" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="84">
@@ -4893,7 +4903,7 @@
         <v>117</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>4</v>
@@ -4902,7 +4912,7 @@
         <v>77</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>29</v>
@@ -4914,7 +4924,7 @@
         <v>7</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="44">
@@ -4946,7 +4956,7 @@
         <v>7</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="42">
@@ -4978,7 +4988,7 @@
         <v>7</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="42">
@@ -5010,7 +5020,7 @@
         <v>7</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="42">
@@ -5042,10 +5052,10 @@
         <v>7</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="21">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -5053,28 +5063,28 @@
         <v>117</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="42">
@@ -5085,28 +5095,28 @@
         <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="22">
@@ -5117,28 +5127,28 @@
         <v>117</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="22">
@@ -5149,28 +5159,28 @@
         <v>119</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J108" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="42">
@@ -5181,28 +5191,28 @@
         <v>119</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F109" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="21">
@@ -5248,47 +5258,47 @@
     <hyperlink ref="H37" r:id="rId36" xr:uid="{FFD5B5B8-79BD-F243-A7DB-01E5DABA4462}"/>
     <hyperlink ref="H35" r:id="rId37" xr:uid="{633551D7-F600-4744-AD5E-11396A2AE8AB}"/>
     <hyperlink ref="H7" r:id="rId38" xr:uid="{8322B148-AD85-2F4C-9CB6-A19B6FC19D18}"/>
-    <hyperlink ref="H32" r:id="rId39" display="https://www.transitionalservices.org/programs/psychiatric-disabilities/transition-age-youth-tay" xr:uid="{CFB72DD7-8624-9241-86D3-D3E134B208D2}"/>
-    <hyperlink ref="H31" r:id="rId40" xr:uid="{C647AC06-F24B-A843-8434-A0453DC84280}"/>
-    <hyperlink ref="H28" r:id="rId41" xr:uid="{ACD69323-360E-8C4D-8373-13D0B7DAC300}"/>
-    <hyperlink ref="H21" r:id="rId42" xr:uid="{9E4CAD04-3378-C943-867C-2F25AB42F218}"/>
-    <hyperlink ref="H20" r:id="rId43" xr:uid="{C36D5DEE-66BB-354E-9005-B439D8F43E9F}"/>
-    <hyperlink ref="H18" r:id="rId44" xr:uid="{FAE42121-769C-A943-86D3-84A2AA45484E}"/>
-    <hyperlink ref="H15" r:id="rId45" xr:uid="{8877EF4D-3DA4-9D40-B9BC-35302CC57CC0}"/>
-    <hyperlink ref="H8" r:id="rId46" xr:uid="{5F6B6DF7-EB62-3145-B2E4-584ED2032C7D}"/>
-    <hyperlink ref="H6" r:id="rId47" xr:uid="{E3CFEEF9-741B-F543-8369-13A1615D2270}"/>
-    <hyperlink ref="H101" r:id="rId48" xr:uid="{35A357F6-372E-1543-B8DF-51B648E5D747}"/>
-    <hyperlink ref="H102" r:id="rId49" xr:uid="{9CCA63AC-E0E8-274F-83DD-7E9277B936EB}"/>
-    <hyperlink ref="H103" r:id="rId50" xr:uid="{E639D2E0-C34A-D641-B81F-45F84B980C6F}"/>
-    <hyperlink ref="H104" r:id="rId51" xr:uid="{FB150194-C333-FD40-98B2-5596E8D3EEA8}"/>
-    <hyperlink ref="H99" r:id="rId52" display="https://www.loudoun.gov/1336/Case-Management-Support-Coordination" xr:uid="{1E7F0E77-D570-AA4D-96B2-4F51CF72AC60}"/>
-    <hyperlink ref="H98" r:id="rId53" display="https://www.loudoun.gov/1414/Outpatient-Services" xr:uid="{536F6D95-9E7C-2648-9834-662C63421535}"/>
-    <hyperlink ref="H100" r:id="rId54" xr:uid="{06EEE0F8-94E4-E94C-B013-5D79AAAABA88}"/>
-    <hyperlink ref="H36" r:id="rId55" display="https://www.alleghenycounty.us/Human-Services/Programs-Services/Basic-Needs/Self-Sufficiency-Case-Management,-Training,-and-Job-Placement.aspx" xr:uid="{F9050A70-BDC7-F746-BDA1-7302238C5D6A}"/>
-    <hyperlink ref="H40" r:id="rId56" xr:uid="{B537E574-F2E1-B94F-974F-DD32505C6816}"/>
-    <hyperlink ref="H38" r:id="rId57" xr:uid="{CCE47D6E-8A14-C948-AFCD-1E10D1B8E3C4}"/>
-    <hyperlink ref="H85" r:id="rId58" xr:uid="{98F2E4EC-5607-884C-9954-23F28C96A324}"/>
-    <hyperlink ref="H84" r:id="rId59" xr:uid="{308FECAD-FD3F-6B4F-AE8C-B701E8685B6E}"/>
-    <hyperlink ref="H79" r:id="rId60" xr:uid="{44BFF1D7-8235-9D4B-8716-5F738F665BC5}"/>
-    <hyperlink ref="H54" r:id="rId61" display="https://www.alleghenycounty.us/Human-Services/About/Contact/Allegheny-Link.aspx" xr:uid="{20558726-B229-F041-9EB4-4549A5FBEB2C}"/>
-    <hyperlink ref="H62" r:id="rId62" display="https://www.nhco.org/employment-services" xr:uid="{612FAF73-374A-FA4F-BB4F-2B5B2C8FDDF7}"/>
-    <hyperlink ref="H61" r:id="rId63" display="https://hscc-mvpc.org/community-programs/supports-for-success/" xr:uid="{99D8066D-1E02-3A47-9EE2-9DDB3E718554}"/>
-    <hyperlink ref="H60" r:id="rId64" display="https://monvalleyinitiative.com/get-help-with/finding-a-job/" xr:uid="{BB1399D9-66FA-0949-9142-67229BDE8020}"/>
-    <hyperlink ref="H59" r:id="rId65" display="https://www.partner4work.org/programs/transitional-jobs/" xr:uid="{4AFCD910-8486-A144-816D-6ED724431F66}"/>
-    <hyperlink ref="H58" r:id="rId66" display="https://www.partner4work.org/programs/strive/" xr:uid="{2FCD641E-64E6-7146-99A3-58F50F96CB2E}"/>
-    <hyperlink ref="H57" r:id="rId67" xr:uid="{862EB1C7-74C9-8F47-9AA9-2E7915BF952D}"/>
-    <hyperlink ref="H53" r:id="rId68" display="https://www.valleyyouthhouse.org/programs/transitional-housing/bridge2home-host-homes/" xr:uid="{E0466A76-5390-164E-A290-AEF2D0A09B00}"/>
-    <hyperlink ref="H51" r:id="rId69" display="https://loudounliteracy.org/" xr:uid="{907D381C-3272-F949-A6E8-731FE13EDE4C}"/>
-    <hyperlink ref="H50" r:id="rId70" display="https://www.oarnova.org/services/loudoun-county" xr:uid="{1BBD0C3D-789C-594F-83FA-234E37701FF0}"/>
-    <hyperlink ref="H48" r:id="rId71" display="https://biz.loudoun.gov/work-in-loudoun/" xr:uid="{CAFEA124-EAC1-CB4C-B78D-03E28514CD6E}"/>
-    <hyperlink ref="H47" r:id="rId72" xr:uid="{85BB00C1-D439-084F-9FD3-1C122D9AE3BC}"/>
-    <hyperlink ref="H46" r:id="rId73" display="https://www.loudoun.gov/1592/Workforce-Resource-Center" xr:uid="{B1B369A2-3F7B-3948-8AB9-F686F8B917C3}"/>
-    <hyperlink ref="H45" r:id="rId74" display="https://veteransnavigator.org/program/74824/loudoun-county-rapid-re-housing-program" xr:uid="{8AC2E830-BD34-4249-A7BF-7D9771E58D1D}"/>
-    <hyperlink ref="H44" r:id="rId75" display="https://www.vaoxfordhouse.org/contact-us/" xr:uid="{B3F4891A-3966-3145-A4C1-1FB453B93B25}"/>
-    <hyperlink ref="H52" r:id="rId76" xr:uid="{C6B74E5D-9B5E-D14E-91CE-675FA663B819}"/>
-    <hyperlink ref="H55" r:id="rId77" display="https://www.partner4work.org/learn-and-earn/" xr:uid="{84AB8363-D9BA-6B47-A0F7-B3436DCE8627}"/>
-    <hyperlink ref="H30" r:id="rId78" display="https://www.partner4work.org/corporate-internship-program" xr:uid="{C6CBC567-D3BC-8840-AEB6-D168EFA7B702}"/>
-    <hyperlink ref="H27" r:id="rId79" xr:uid="{D347906C-689C-D141-9D63-D71AD50CCAFA}"/>
+    <hyperlink ref="H31" r:id="rId39" xr:uid="{C647AC06-F24B-A843-8434-A0453DC84280}"/>
+    <hyperlink ref="H28" r:id="rId40" xr:uid="{ACD69323-360E-8C4D-8373-13D0B7DAC300}"/>
+    <hyperlink ref="H21" r:id="rId41" xr:uid="{9E4CAD04-3378-C943-867C-2F25AB42F218}"/>
+    <hyperlink ref="H20" r:id="rId42" xr:uid="{C36D5DEE-66BB-354E-9005-B439D8F43E9F}"/>
+    <hyperlink ref="H18" r:id="rId43" xr:uid="{FAE42121-769C-A943-86D3-84A2AA45484E}"/>
+    <hyperlink ref="H15" r:id="rId44" xr:uid="{8877EF4D-3DA4-9D40-B9BC-35302CC57CC0}"/>
+    <hyperlink ref="H8" r:id="rId45" xr:uid="{5F6B6DF7-EB62-3145-B2E4-584ED2032C7D}"/>
+    <hyperlink ref="H6" r:id="rId46" xr:uid="{E3CFEEF9-741B-F543-8369-13A1615D2270}"/>
+    <hyperlink ref="H101" r:id="rId47" xr:uid="{35A357F6-372E-1543-B8DF-51B648E5D747}"/>
+    <hyperlink ref="H102" r:id="rId48" xr:uid="{9CCA63AC-E0E8-274F-83DD-7E9277B936EB}"/>
+    <hyperlink ref="H103" r:id="rId49" xr:uid="{E639D2E0-C34A-D641-B81F-45F84B980C6F}"/>
+    <hyperlink ref="H104" r:id="rId50" xr:uid="{FB150194-C333-FD40-98B2-5596E8D3EEA8}"/>
+    <hyperlink ref="H99" r:id="rId51" display="https://www.loudoun.gov/1336/Case-Management-Support-Coordination" xr:uid="{1E7F0E77-D570-AA4D-96B2-4F51CF72AC60}"/>
+    <hyperlink ref="H98" r:id="rId52" display="https://www.loudoun.gov/1414/Outpatient-Services" xr:uid="{536F6D95-9E7C-2648-9834-662C63421535}"/>
+    <hyperlink ref="H100" r:id="rId53" xr:uid="{06EEE0F8-94E4-E94C-B013-5D79AAAABA88}"/>
+    <hyperlink ref="H36" r:id="rId54" display="https://www.alleghenycounty.us/Human-Services/Programs-Services/Basic-Needs/Self-Sufficiency-Case-Management,-Training,-and-Job-Placement.aspx" xr:uid="{F9050A70-BDC7-F746-BDA1-7302238C5D6A}"/>
+    <hyperlink ref="H40" r:id="rId55" xr:uid="{B537E574-F2E1-B94F-974F-DD32505C6816}"/>
+    <hyperlink ref="H38" r:id="rId56" xr:uid="{CCE47D6E-8A14-C948-AFCD-1E10D1B8E3C4}"/>
+    <hyperlink ref="H85" r:id="rId57" xr:uid="{98F2E4EC-5607-884C-9954-23F28C96A324}"/>
+    <hyperlink ref="H84" r:id="rId58" xr:uid="{308FECAD-FD3F-6B4F-AE8C-B701E8685B6E}"/>
+    <hyperlink ref="H79" r:id="rId59" xr:uid="{44BFF1D7-8235-9D4B-8716-5F738F665BC5}"/>
+    <hyperlink ref="H54" r:id="rId60" display="https://www.alleghenycounty.us/Human-Services/About/Contact/Allegheny-Link.aspx" xr:uid="{20558726-B229-F041-9EB4-4549A5FBEB2C}"/>
+    <hyperlink ref="H62" r:id="rId61" display="https://www.nhco.org/employment-services" xr:uid="{612FAF73-374A-FA4F-BB4F-2B5B2C8FDDF7}"/>
+    <hyperlink ref="H61" r:id="rId62" display="https://hscc-mvpc.org/community-programs/supports-for-success/" xr:uid="{99D8066D-1E02-3A47-9EE2-9DDB3E718554}"/>
+    <hyperlink ref="H60" r:id="rId63" display="https://monvalleyinitiative.com/get-help-with/finding-a-job/" xr:uid="{BB1399D9-66FA-0949-9142-67229BDE8020}"/>
+    <hyperlink ref="H59" r:id="rId64" display="https://www.partner4work.org/programs/transitional-jobs/" xr:uid="{4AFCD910-8486-A144-816D-6ED724431F66}"/>
+    <hyperlink ref="H58" r:id="rId65" display="https://www.partner4work.org/programs/strive/" xr:uid="{2FCD641E-64E6-7146-99A3-58F50F96CB2E}"/>
+    <hyperlink ref="H57" r:id="rId66" xr:uid="{862EB1C7-74C9-8F47-9AA9-2E7915BF952D}"/>
+    <hyperlink ref="H53" r:id="rId67" display="https://www.valleyyouthhouse.org/programs/transitional-housing/bridge2home-host-homes/" xr:uid="{E0466A76-5390-164E-A290-AEF2D0A09B00}"/>
+    <hyperlink ref="H51" r:id="rId68" display="https://loudounliteracy.org/" xr:uid="{907D381C-3272-F949-A6E8-731FE13EDE4C}"/>
+    <hyperlink ref="H50" r:id="rId69" display="https://www.oarnova.org/services/loudoun-county" xr:uid="{1BBD0C3D-789C-594F-83FA-234E37701FF0}"/>
+    <hyperlink ref="H48" r:id="rId70" display="https://biz.loudoun.gov/work-in-loudoun/" xr:uid="{CAFEA124-EAC1-CB4C-B78D-03E28514CD6E}"/>
+    <hyperlink ref="H47" r:id="rId71" xr:uid="{85BB00C1-D439-084F-9FD3-1C122D9AE3BC}"/>
+    <hyperlink ref="H46" r:id="rId72" display="https://www.loudoun.gov/1592/Workforce-Resource-Center" xr:uid="{B1B369A2-3F7B-3948-8AB9-F686F8B917C3}"/>
+    <hyperlink ref="H45" r:id="rId73" display="https://veteransnavigator.org/program/74824/loudoun-county-rapid-re-housing-program" xr:uid="{8AC2E830-BD34-4249-A7BF-7D9771E58D1D}"/>
+    <hyperlink ref="H44" r:id="rId74" display="https://www.vaoxfordhouse.org/contact-us/" xr:uid="{B3F4891A-3966-3145-A4C1-1FB453B93B25}"/>
+    <hyperlink ref="H52" r:id="rId75" xr:uid="{C6B74E5D-9B5E-D14E-91CE-675FA663B819}"/>
+    <hyperlink ref="H55" r:id="rId76" display="https://www.partner4work.org/learn-and-earn/" xr:uid="{84AB8363-D9BA-6B47-A0F7-B3436DCE8627}"/>
+    <hyperlink ref="H30" r:id="rId77" display="https://www.partner4work.org/corporate-internship-program" xr:uid="{C6CBC567-D3BC-8840-AEB6-D168EFA7B702}"/>
+    <hyperlink ref="H27" r:id="rId78" xr:uid="{D347906C-689C-D141-9D63-D71AD50CCAFA}"/>
+    <hyperlink ref="H32" r:id="rId79" xr:uid="{651FA161-2807-C349-82D8-5435B5EA74CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId80"/>
